--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.012320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.012320.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1403,12 +1403,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1571,12 +1571,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2293,12 +2293,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2335,12 +2335,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2377,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2545,12 +2545,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2587,12 +2587,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2847,12 +2847,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2931,12 +2931,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3057,12 +3057,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4791,12 +4791,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5085,12 +5085,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5253,12 +5253,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5379,12 +5379,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5463,12 +5463,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5505,12 +5505,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5589,12 +5589,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5631,12 +5631,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6475,12 +6475,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7109,12 +7109,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7151,12 +7151,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7281,12 +7281,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7323,12 +7323,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7449,12 +7449,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7701,12 +7701,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7999,12 +7999,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8087,12 +8087,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8255,12 +8255,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8591,12 +8591,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8843,12 +8843,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9011,12 +9011,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9515,12 +9515,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9855,12 +9855,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10233,12 +10233,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10359,12 +10359,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10989,12 +10989,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11115,12 +11115,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11745,12 +11745,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11829,12 +11829,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12417,12 +12417,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12501,12 +12501,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12925,12 +12925,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13733,12 +13733,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13947,12 +13947,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14115,12 +14115,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14157,12 +14157,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14409,12 +14409,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
